--- a/�����������.xlsx
+++ b/�����������.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="错误列表" sheetId="1" r:id="rId1"/>
+    <sheet name="要增加块的列表" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>可能的原因</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,6 +43,24 @@
   </si>
   <si>
     <t>错误类别(1. 操作错误，2. 环境设置有误，3. grass系统错误，4. 版本问题)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增快描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类别(g,r,v,i,db,)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据指定的数据块获取最大的区域范围
+获取所有特定数据类型的最大区域范围
+默认情况下为获取当前mapset中所有数据集的最大范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -98,12 +116,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -469,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -522,12 +546,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="49.25" customWidth="1"/>
+    <col min="2" max="2" width="29.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="40.5">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
